--- a/coffe sales.xlsx
+++ b/coffe sales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="coffe sales" sheetId="1" r:id="rId1"/>
@@ -15562,7 +15562,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -16087,13 +16087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3637"/>
+  <dimension ref="A1:H3637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
@@ -16101,6 +16101,7 @@
     <col min="4" max="4" width="22.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="12.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16203,7 +16204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>45352</v>
       </c>
@@ -16221,6 +16222,10 @@
       </c>
       <c r="F6" t="s">
         <v>8</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(E2:E12)</f>
+        <v>36.0272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:6">
